--- a/Zeus/data/TSP/Results/Comparison.xlsx
+++ b/Zeus/data/TSP/Results/Comparison.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="129">
   <si>
     <t>FileName</t>
   </si>
@@ -391,6 +391,21 @@
   </si>
   <si>
     <t>5.882s</t>
+  </si>
+  <si>
+    <t>29.841s</t>
+  </si>
+  <si>
+    <t>0.314s</t>
+  </si>
+  <si>
+    <t>21.716s</t>
+  </si>
+  <si>
+    <t>0.343s</t>
+  </si>
+  <si>
+    <t>1.279s</t>
   </si>
 </sst>
 </file>
@@ -846,23 +861,23 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>2529.9921875</v>
       </c>
-      <c r="D3">
-        <v>2117.13525390625</v>
-      </c>
-      <c r="E3">
-        <v>16.31850626391509</v>
+      <c r="D3" t="n">
+        <v>2128.58447265625</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15.865966575983748</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>250</v>
+        <v>124</v>
+      </c>
+      <c r="G3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>250.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -872,23 +887,23 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>39306.31640625</v>
       </c>
-      <c r="D4">
-        <v>32377.35546875</v>
-      </c>
-      <c r="E4">
-        <v>17.628110621931093</v>
+      <c r="D4" t="n">
+        <v>32358.716796875</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17.675529646604783</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>250</v>
+        <v>125</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>250.0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -898,12 +913,24 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5" s="6"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="C5" t="n">
+        <v>113340.015625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>94858.1875</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16.306533948388978</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>250.0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -912,12 +939,24 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6" s="6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="C6" t="n">
+        <v>9663.8544921875</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7469.65771484375</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22.705192623891357</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>250.0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -926,12 +965,24 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7" s="6"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
+      <c r="C7" t="n">
+        <v>145186.859375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>124590.0546875</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14.186411067892147</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>250.0</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">

--- a/Zeus/data/TSP/Results/Comparison.xlsx
+++ b/Zeus/data/TSP/Results/Comparison.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="132">
   <si>
     <t>FileName</t>
   </si>
@@ -406,6 +406,15 @@
   </si>
   <si>
     <t>1.279s</t>
+  </si>
+  <si>
+    <t>6.764s</t>
+  </si>
+  <si>
+    <t>29.889s</t>
+  </si>
+  <si>
+    <t>0.37s</t>
   </si>
 </sst>
 </file>
@@ -839,19 +848,19 @@
         <v>3320.119873046875</v>
       </c>
       <c r="D2" t="n">
-        <v>2895.980224609375</v>
+        <v>2871.75244140625</v>
       </c>
       <c r="E2" t="n">
-        <v>12.77482936326233</v>
+        <v>13.504555521640194</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G2" t="n">
         <v>30.0</v>
       </c>
       <c r="H2" t="n">
-        <v>250.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -865,19 +874,19 @@
         <v>2529.9921875</v>
       </c>
       <c r="D3" t="n">
-        <v>2128.58447265625</v>
+        <v>2162.1923828125</v>
       </c>
       <c r="E3" t="n">
-        <v>15.865966575983748</v>
+        <v>14.53758657851587</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G3" t="n">
         <v>30.0</v>
       </c>
       <c r="H3" t="n">
-        <v>250.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -891,19 +900,19 @@
         <v>39306.31640625</v>
       </c>
       <c r="D4" t="n">
-        <v>32358.716796875</v>
+        <v>32272.44921875</v>
       </c>
       <c r="E4" t="n">
-        <v>17.675529646604783</v>
+        <v>17.895004748859044</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G4" t="n">
         <v>30.0</v>
       </c>
       <c r="H4" t="n">
-        <v>250.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
